--- a/preprod/utilities/preprod_account_test_data.xlsx
+++ b/preprod/utilities/preprod_account_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9120"/>
+    <workbookView windowWidth="23040" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
